--- a/othello/player_prog/result/rate_excel/init_rate.xlsx
+++ b/othello/player_prog/result/rate_excel/init_rate.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukai3264/takao/othello/player_prog/result/rate_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A25D2D-7660-E64B-A844-366C4F504789}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864A4FA-8D93-4D43-9AED-207E28CACAD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="900" windowWidth="28300" windowHeight="17440" xr2:uid="{53ED9014-DF1C-6D40-B1AB-D87422605686}"/>
+    <workbookView xWindow="6740" yWindow="900" windowWidth="26420" windowHeight="17440" xr2:uid="{53ED9014-DF1C-6D40-B1AB-D87422605686}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$M$12:$R$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$M$22:$R$22</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$M$12:$R$12</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$M$22:$R$22</definedName>
     <definedName name="init_rate" localSheetId="0">Sheet1!$A$2:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Random</t>
   </si>
@@ -82,23 +86,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>random</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MC-100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MCT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EPT1730</t>
+    <t>MC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EPT8500</t>
+    <t>Random</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EPT+MCT1730</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EPT+MCT8500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶対値</t>
+    <rPh sb="0" eb="1">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ILO_RATE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -191,7 +210,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -231,6 +253,849 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$12:$R$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ILO_RATE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPT+MCT1730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EPT+MCT8500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$22:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62.298358804760532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.701884097302198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.66313630518863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.281855022599643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.49479563448169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.539871830843765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA81-1040-90E5-6C59D3A791DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2039926927"/>
+        <c:axId val="2040711055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2039926927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2040711055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2040711055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2039926927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA40290-E362-9149-967C-BFDADE883F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,15 +1399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85CE3C3-F5CE-8E4D-B838-A43B9FEDB88B}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -584,13 +1450,13 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
@@ -641,21 +1507,23 @@
         <v>699.86347850000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-249.56400484935503</v>
+        <v>678.0878497766663</v>
       </c>
       <c r="O2" s="1">
-        <v>596.81727809138283</v>
+        <v>677.90395784896043</v>
       </c>
       <c r="P2" s="1">
-        <v>-121.80354656462455</v>
+        <v>682.5101670184315</v>
       </c>
       <c r="Q2" s="8">
-        <v>-289.61312079472253</v>
+        <v>628.44123635465132</v>
       </c>
       <c r="R2" s="8">
-        <v>-524.54101007971758</v>
-      </c>
-      <c r="S2" s="7"/>
+        <v>677.3176790543755</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -705,19 +1573,22 @@
         <v>1101.8281910000001</v>
       </c>
       <c r="N3">
-        <v>29.246016722066035</v>
+        <v>1089.4059003106754</v>
       </c>
       <c r="O3">
-        <v>439.24640765171904</v>
+        <v>1089.7860549936454</v>
       </c>
       <c r="P3">
-        <v>345.25230260141177</v>
+        <v>1092.2658656188578</v>
       </c>
       <c r="Q3">
-        <v>1263.9970913433092</v>
+        <v>1064.0602975913541</v>
       </c>
       <c r="R3">
-        <v>-138.13575936425673</v>
+        <v>1090.5826758268613</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -762,19 +1633,22 @@
         <v>1135.151965</v>
       </c>
       <c r="N4">
-        <v>187.5883631788021</v>
+        <v>1125.5800936388321</v>
       </c>
       <c r="O4">
-        <v>667.58371007037147</v>
+        <v>1125.4573183883454</v>
       </c>
       <c r="P4">
-        <v>490.67234152398771</v>
+        <v>1127.4472241350516</v>
       </c>
       <c r="Q4">
-        <v>1402.8003224971815</v>
+        <v>1102.6084156368704</v>
       </c>
       <c r="R4">
-        <v>-112.47274046662935</v>
+        <v>1125.013500869635</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -819,19 +1693,22 @@
         <v>1234.6791450000001</v>
       </c>
       <c r="N5">
-        <v>-36.713562386813209</v>
+        <v>1229.8758937609477</v>
       </c>
       <c r="O5">
-        <v>998.30823730684381</v>
+        <v>1229.4958016014605</v>
       </c>
       <c r="P5">
-        <v>572.14711878221044</v>
+        <v>1230.5771075823698</v>
       </c>
       <c r="Q5">
-        <v>2101.3672176741293</v>
+        <v>1216.7573700522744</v>
       </c>
       <c r="R5">
-        <v>-31.320795180380276</v>
+        <v>1228.7470932207593</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -876,19 +1753,22 @@
         <v>1837.968652</v>
       </c>
       <c r="N6">
-        <v>1274.9742779745775</v>
+        <v>1848.286074434661</v>
       </c>
       <c r="O6">
-        <v>1824.1126348657056</v>
+        <v>1847.3708646603359</v>
       </c>
       <c r="P6">
-        <v>1356.0256116116864</v>
+        <v>1845.3158635499419</v>
       </c>
       <c r="Q6">
-        <v>4707.2603678032719</v>
+        <v>1864.9375762936509</v>
       </c>
       <c r="R6">
-        <v>686.20434675498279</v>
+        <v>1845.516406895131</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -933,19 +1813,22 @@
         <v>2135.2190000000001</v>
       </c>
       <c r="N7">
-        <v>1387.734533377967</v>
+        <v>2152.272605136925</v>
       </c>
       <c r="O7">
-        <v>2313.788371220342</v>
+        <v>2151.5147089065108</v>
       </c>
       <c r="P7">
-        <v>1646.1798722774129</v>
+        <v>2148.415238360084</v>
       </c>
       <c r="Q7">
-        <v>6146.9404601795222</v>
+        <v>2193.8959107342248</v>
       </c>
       <c r="R7">
-        <v>768.73993896721265</v>
+        <v>2153.5700000515844</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -990,19 +1873,22 @@
         <v>1401.975858</v>
       </c>
       <c r="N8">
-        <v>519.72929597570828</v>
+        <v>1399.2330354464411</v>
       </c>
       <c r="O8">
-        <v>905.91252239724633</v>
+        <v>1399.7140051656618</v>
       </c>
       <c r="P8">
-        <v>673.10601459752695</v>
+        <v>1400.2725394150134</v>
       </c>
       <c r="Q8">
-        <v>2338.313508416732</v>
+        <v>1398.7473513811046</v>
       </c>
       <c r="R8">
-        <v>113.96896907127197</v>
+        <v>1401.2508791609941</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1047,19 +1933,22 @@
         <v>1820.412075</v>
       </c>
       <c r="N9">
-        <v>1236.0636517770747</v>
+        <v>1827.8342277779857</v>
       </c>
       <c r="O9">
-        <v>1930.3831888665848</v>
+        <v>1828.7165432222732</v>
       </c>
       <c r="P9">
-        <v>-1722018.5492704613</v>
+        <v>1826.8176443397249</v>
       </c>
       <c r="Q9">
-        <v>4089.9682692052634</v>
+        <v>1842.4980976882052</v>
       </c>
       <c r="R9">
-        <v>492.75873597928131</v>
+        <v>1827.9314872930775</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1104,49 +1993,408 @@
         <v>2132.9016369999999</v>
       </c>
       <c r="N10">
-        <v>1121.610072848888</v>
+        <v>2149.4243197168657</v>
       </c>
       <c r="O10">
-        <v>2259.2245705117348</v>
+        <v>2150.0407452128061</v>
       </c>
       <c r="P10">
-        <v>1615.0572282373821</v>
+        <v>2146.3783499805249</v>
       </c>
       <c r="Q10">
-        <v>6456.2112968706142</v>
+        <v>2188.0537442676641</v>
       </c>
       <c r="R10">
-        <v>750.06881075653689</v>
+        <v>2150.0702776275812</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1">
+        <f>SUM(L2:L10)</f>
+        <v>13499.999999999956</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:R11" si="1">SUM(M2:M10)</f>
+        <v>13500.000001500001</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="1"/>
+        <v>13499.999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="4">
+        <f>ABS(M2-L2)</f>
+        <v>30.308248933523828</v>
+      </c>
+      <c r="N13">
+        <f>ABS(N2-L2)</f>
+        <v>52.083877656857567</v>
+      </c>
+      <c r="O13">
+        <f>ABS(O2-L2)</f>
+        <v>52.267769584563439</v>
+      </c>
+      <c r="P13">
+        <f>ABS(P2-L2)</f>
+        <v>47.661560415092367</v>
+      </c>
+      <c r="Q13">
+        <f>ABS(Q2-L2)</f>
+        <v>101.73049107887255</v>
+      </c>
+      <c r="R13">
+        <f>ABS(R2-L2)</f>
+        <v>52.854048379148367</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="M14" s="4">
+        <f t="shared" ref="M14:M21" si="2">ABS(M3-L3)</f>
+        <v>54.038303280287892</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N21" si="3">ABS(N3-L3)</f>
+        <v>66.460593969612546</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O21" si="4">ABS(O3-L3)</f>
+        <v>66.080439286642559</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P21" si="5">ABS(P3-L3)</f>
+        <v>63.600628661430164</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q21" si="6">ABS(Q3-L3)</f>
+        <v>91.806196688933824</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:R21" si="7">ABS(R3-L3)</f>
+        <v>65.283818453426647</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="M15" s="4">
+        <f t="shared" si="2"/>
+        <v>54.822453811124888</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>64.394325172292838</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>64.517100422779549</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>62.52719467607335</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>87.366003174254502</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>64.960917941489924</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="M16" s="4"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="M16" s="4">
+        <f t="shared" si="2"/>
+        <v>64.325164200447944</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>69.128415439500259</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>69.508507598987535</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>68.427201618078243</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>82.246939148173624</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>70.257215979688681</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="12:21">
+      <c r="M17" s="4">
+        <f t="shared" si="2"/>
+        <v>82.471864429599009</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>92.789286864260021</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>91.874077089934872</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>89.819075979540912</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>109.44078872324985</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>90.019619324730002</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="12:21">
+      <c r="M18" s="4">
+        <f t="shared" si="2"/>
+        <v>65.344675759704842</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>82.398280896629785</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>81.640384666215596</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>78.540914119788795</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>124.02158649392959</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>83.69567581128922</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="12:21">
+      <c r="M19" s="4">
+        <f t="shared" si="2"/>
+        <v>76.848443646015994</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>79.591266199574875</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>79.110296480354236</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>78.551762231002613</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>80.076950264911375</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>77.573422485021865</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="12:21">
+      <c r="M20" s="4">
+        <f t="shared" si="2"/>
+        <v>33.604213048695101</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>41.026365826680831</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>41.908681270968373</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>40.009782388420035</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>55.690235736900377</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>41.123625341772595</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="12:21">
+      <c r="M21" s="4">
+        <f t="shared" si="2"/>
+        <v>98.921862133445302</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>115.4445448503111</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>116.06097034625145</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>112.39857511397031</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>154.07396940110948</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>116.09050276102653</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="12:21">
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="9">
+        <f>SUM(M13:M21)/9</f>
+        <v>62.298358804760532</v>
+      </c>
+      <c r="N22" s="4">
+        <f>SUM(N13:N21)/9</f>
+        <v>73.701884097302198</v>
+      </c>
+      <c r="O22" s="4">
+        <f>SUM(O13:O21)/9</f>
+        <v>73.66313630518863</v>
+      </c>
+      <c r="P22" s="4">
+        <f>SUM(P13:P21)/9</f>
+        <v>71.281855022599643</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>SUM(Q13:Q21)/9</f>
+        <v>98.49479563448169</v>
+      </c>
+      <c r="R22" s="4">
+        <f>SUM(R13:R21)/9</f>
+        <v>73.539871830843765</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>